--- a/Financial Services/Fiserv.xlsx
+++ b/Financial Services/Fiserv.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9D3154-E08B-DE4B-9DF5-7C4336730A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC6FB72-6A1F-0B48-992B-B5C3BC3353AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22300" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2529,11 +2529,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>119.48</v>
+    <v>122.39</v>
     <v>87.03</v>
-    <v>0.85160000000000002</v>
-    <v>-0.34</v>
-    <v>-2.9609999999999997E-3</v>
+    <v>0.85599999999999998</v>
+    <v>-0.11</v>
+    <v>-9.2050000000000009E-4</v>
+    <v>-0.5</v>
+    <v>-4.1879999999999999E-3</v>
     <v>USD</v>
     <v>Fiserv, Inc. is a global provider of payments and financial services technology solutions. The Company provides account processing and digital banking solutions, card issuer processing and network services, card issuer processing and network services, payments, e-commerce, merchant acquiring and processing, and the Clover cloud-based point-of-sale solution and business management platform. The Company’s segments include Merchant Acceptance (Acceptance), Financial Technology (Fintech) and Payments and Network (Payments). The Acceptance segment provides a range of commerce-enabling solutions and serves merchants of all sizes around the world. The Fintech segment provides financial institutions around the world with the technology solutions they need to run their operations. The Payments segment provides financial institutions and corporate clients around the world with the products and services required to process digital payment transactions.</v>
     <v>41000</v>
@@ -2541,24 +2543,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Po Box 979, 255 Fiserv Dr, BROOKFIELD, WI, 53045 US</v>
-    <v>116.02500000000001</v>
+    <v>119.64</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45028.870355428124</v>
+    <v>45055.901278437501</v>
     <v>0</v>
-    <v>113.7</v>
-    <v>71344351908</v>
+    <v>118.05</v>
+    <v>73700628961</v>
     <v>FISERV, INC.</v>
     <v>FISERV, INC.</v>
-    <v>115.62</v>
-    <v>29.303000000000001</v>
-    <v>114.83</v>
-    <v>114.49</v>
-    <v>623149200</v>
+    <v>118.99</v>
+    <v>31.605599999999999</v>
+    <v>119.5</v>
+    <v>119.39</v>
+    <v>118.89</v>
+    <v>617309900</v>
     <v>FISV</v>
     <v>FISERV, INC. (XNAS:FISV)</v>
-    <v>4208526</v>
-    <v>4078423</v>
+    <v>2393496</v>
+    <v>2832452</v>
     <v>1992</v>
   </rv>
   <rv s="2">
@@ -2590,6 +2593,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2610,6 +2615,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2626,7 +2632,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2637,13 +2643,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2709,13 +2718,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2760,6 +2775,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2767,6 +2785,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3128,10 +3149,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AV3" sqref="AV3:AV16"/>
+      <selection pane="bottomRight" activeCell="AO86" sqref="AO86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5346,15 +5367,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>4.0223460510796638</v>
+        <v>4.1551913492135082</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>28.199348580237153</v>
+        <v>29.130683383794466</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>22.728369515132208</v>
+        <v>23.479015279069767</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15024,7 +15045,7 @@
       </c>
       <c r="AU95" s="39" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.85160000000000002</v>
+        <v>0.85599999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15275,7 +15296,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>7.7611380000000008E-2</v>
+        <v>7.7800800000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15650,7 +15671,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>0.23089108414631379</v>
+        <v>0.22517145415102321</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15776,7 +15797,7 @@
       </c>
       <c r="AU101" s="40" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>71344351908</v>
+        <v>73700628961</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15902,7 +15923,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.76910891585368624</v>
+        <v>0.77482854584897676</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16028,7 +16049,7 @@
       </c>
       <c r="AU103" s="41">
         <f>AU99+AU101</f>
-        <v>92762351908</v>
+        <v>95118628961</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16318,7 +16339,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>6.6098853773148711E-2</v>
+        <v>6.6530809899482582E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16516,7 +16537,7 @@
       <c r="AQ107" s="43"/>
       <c r="AR107" s="46">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>96492696147.065598</v>
+        <v>95489089153.894073</v>
       </c>
       <c r="AS107" s="47" t="s">
         <v>148</v>
@@ -16547,7 +16568,7 @@
       </c>
       <c r="AR108" s="46">
         <f>AR107+AR106</f>
-        <v>100361710009.62669</v>
+        <v>99358103016.45517</v>
       </c>
       <c r="AS108" s="47" t="s">
         <v>144</v>
@@ -16557,7 +16578,7 @@
       </c>
       <c r="AU108" s="51">
         <f>AU105</f>
-        <v>6.6098853773148711E-2</v>
+        <v>6.6530809899482582E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16572,7 +16593,7 @@
       </c>
       <c r="AO110" s="40">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>84757521359.558075</v>
+        <v>83870900022.794556</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16599,7 +16620,7 @@
       </c>
       <c r="AO113" s="40">
         <f>AO110+AO111-AO112</f>
-        <v>64241521359.558075</v>
+        <v>63354900022.794556</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16608,7 +16629,7 @@
       </c>
       <c r="AO114" s="53" cm="1">
         <f t="array" ref="AO114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>623149200</v>
+        <v>617309900</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16617,7 +16638,7 @@
       </c>
       <c r="AO115" s="55">
         <f>AO113/AO114</f>
-        <v>103.09171761683731</v>
+        <v>102.63062365077015</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16626,7 +16647,7 @@
       </c>
       <c r="AO116" s="56" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>114.49</v>
+        <v>119.39</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16635,7 +16656,7 @@
       </c>
       <c r="AO117" s="58">
         <f>AO115/AO116-1</f>
-        <v>-9.9557012692485625E-2</v>
+        <v>-0.14037504271069479</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
